--- a/outputs-GTDB-r202/p__Patescibacteria.xlsx
+++ b/outputs-GTDB-r202/p__Patescibacteria.xlsx
@@ -972,7 +972,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>c__Paceibacteria</t>
+          <t>c__Paceibacteria(reject)</t>
         </is>
       </c>
     </row>
